--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/foobarstein/Documents/courses/database-design/exam-1-practice/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE49C5-F670-5B4A-9860-6EF78D0C514C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D515FBC-EB85-5C4F-AA5B-93ABD97C575D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="27360" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16792,8 +16792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D285" workbookViewId="0">
-      <selection activeCell="J292" sqref="J292"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/foobarstein/Documents/courses/database-design/exam-1-practice/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnabgupta/Documents/NYU/Part-time/DB Design/exam1/test1/exam-corr/exam-1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D515FBC-EB85-5C4F-AA5B-93ABD97C575D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DA32DA-49E2-1743-B714-A0EF7E6B9F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="27360" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="27360" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7001" uniqueCount="5296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6999" uniqueCount="5294">
   <si>
     <t>id</t>
   </si>
@@ -15868,21 +15868,9 @@
     <t>Total # users</t>
   </si>
   <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
     <t>Enter formula here</t>
   </si>
   <si>
-    <t>In New England</t>
-  </si>
-  <si>
-    <t>In Top 5 Most Populous US Cities</t>
-  </si>
-  <si>
     <t>Real food</t>
   </si>
   <si>
@@ -15908,6 +15896,12 @@
   </si>
   <si>
     <t>Average Affinity Category ID in New York</t>
+  </si>
+  <si>
+    <t>In the pacific sub-region</t>
+  </si>
+  <si>
+    <t>The following 5 US cities</t>
   </si>
 </sst>
 </file>
@@ -16793,7 +16787,7 @@
   <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16833,16 +16827,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>5291</v>
+        <v>5287</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>5292</v>
+        <v>5288</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>5293</v>
+        <v>5289</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>5294</v>
+        <v>5290</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5280</v>
@@ -16889,7 +16883,7 @@
         <v>5281</v>
       </c>
       <c r="O2" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -16968,7 +16962,7 @@
         <v>16</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>5285</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -17009,10 +17003,10 @@
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>320</v>
+        <v>1784</v>
       </c>
       <c r="O5" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -17053,10 +17047,10 @@
         <v>16</v>
       </c>
       <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
         <v>5282</v>
-      </c>
-      <c r="O6" t="s">
-        <v>5284</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -17097,10 +17091,10 @@
         <v>13</v>
       </c>
       <c r="N7" t="s">
-        <v>313</v>
+        <v>1124</v>
       </c>
       <c r="O7" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -17141,10 +17135,10 @@
         <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>1462</v>
       </c>
       <c r="O8" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -17185,10 +17179,10 @@
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>327</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -17228,12 +17222,6 @@
       <c r="L10" s="4">
         <v>14</v>
       </c>
-      <c r="N10" t="s">
-        <v>5283</v>
-      </c>
-      <c r="O10" t="s">
-        <v>5284</v>
-      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -17311,7 +17299,7 @@
         <v>16</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>5286</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -17352,13 +17340,13 @@
         <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -17399,13 +17387,13 @@
         <v>15</v>
       </c>
       <c r="N14" t="s">
-        <v>601</v>
+        <v>489</v>
       </c>
       <c r="O14" t="s">
         <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -17446,13 +17434,13 @@
         <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>1897</v>
+        <v>104</v>
       </c>
       <c r="O15" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -17493,13 +17481,13 @@
         <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="O16" t="s">
         <v>14</v>
       </c>
       <c r="P16" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -17540,13 +17528,13 @@
         <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>374</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="P17" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -17625,7 +17613,7 @@
         <v>15</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>5295</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -17666,13 +17654,13 @@
         <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>5287</v>
+        <v>5283</v>
       </c>
       <c r="O20" t="s">
         <v>47</v>
       </c>
       <c r="P20" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -17713,13 +17701,13 @@
         <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>5288</v>
+        <v>5284</v>
       </c>
       <c r="O21" t="s">
         <v>47</v>
       </c>
       <c r="P21" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -17760,13 +17748,13 @@
         <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>5289</v>
+        <v>5285</v>
       </c>
       <c r="O22" t="s">
         <v>47</v>
       </c>
       <c r="P22" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -17807,13 +17795,13 @@
         <v>13</v>
       </c>
       <c r="N23" t="s">
-        <v>5290</v>
+        <v>5286</v>
       </c>
       <c r="O23" t="s">
         <v>47</v>
       </c>
       <c r="P23" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
